--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\DATI_SPECIALISTICA_E_RADIOLOGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC91FB3-0373-4F29-A268-FBC0A5B6A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DC5D4-89A0-42B3-8F4B-00C7B974389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,24 +1158,12 @@
     <t>2024-03-05T12:56:59Z</t>
   </si>
   <si>
-    <t>2024-03-05T12:58:06Z</t>
-  </si>
-  <si>
     <t>ff58b8c9e93a2147</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.100.4.4.8bcee8745f9541f639eab5850daddaae69f6bacd6d3294a40297edbb14b97809.7953e2c0ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>271d41da7afdadb7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.bd07df387733c888edce98eef541619f8c83ddf0f39ff59d446a1ef7583d5566.ba56f4bebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-03-05T12:59:53Z</t>
-  </si>
-  <si>
     <t>2024-03-05T13:01:19Z</t>
   </si>
   <si>
@@ -1312,6 +1300,18 @@
   </si>
   <si>
     <t>2024-03-05T14:42:39Z</t>
+  </si>
+  <si>
+    <t>2024-03-75T12:58:06Z</t>
+  </si>
+  <si>
+    <t>2024-03-07T17:39:51Z</t>
+  </si>
+  <si>
+    <t>b842a312fd6768f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.27756b8b0640bf76869e1bd523d54063c800f4e56edad8a12c5473a87bceb04f.d654ca0f47^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4359,10 +4359,10 @@
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4852,13 +4852,13 @@
         <v>45356</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>278</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>279</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>60</v>
@@ -4895,16 +4895,16 @@
         <v>67</v>
       </c>
       <c r="F15" s="26">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>60</v>
@@ -4944,13 +4944,13 @@
         <v>45356</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>60</v>
@@ -4990,13 +4990,13 @@
         <v>45356</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>60</v>
@@ -5015,7 +5015,7 @@
         <v>60</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="39"/>
@@ -5124,13 +5124,13 @@
         <v>45356</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>60</v>
@@ -5149,7 +5149,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="39"/>
@@ -5258,13 +5258,13 @@
         <v>45356</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>60</v>
@@ -5283,7 +5283,7 @@
         <v>60</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5314,13 +5314,13 @@
         <v>45356</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>60</v>
@@ -5339,7 +5339,7 @@
         <v>60</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
@@ -5368,13 +5368,13 @@
         <v>45356</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>60</v>
@@ -5393,7 +5393,7 @@
         <v>60</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="29"/>
@@ -5422,13 +5422,13 @@
         <v>45356</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>60</v>
@@ -5447,7 +5447,7 @@
         <v>60</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5476,13 +5476,13 @@
         <v>45356</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>60</v>
@@ -5501,7 +5501,7 @@
         <v>60</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="39"/>
@@ -5570,13 +5570,13 @@
         <v>45356</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>60</v>
@@ -5595,7 +5595,7 @@
         <v>60</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="39"/>
@@ -5624,13 +5624,13 @@
         <v>45356</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>60</v>
@@ -5649,7 +5649,7 @@
         <v>60</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="39"/>
@@ -5678,13 +5678,13 @@
         <v>45356</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>60</v>
@@ -5703,7 +5703,7 @@
         <v>60</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="39"/>
@@ -5732,13 +5732,13 @@
         <v>45356</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>60</v>
@@ -5757,7 +5757,7 @@
         <v>60</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="39"/>
@@ -5786,13 +5786,13 @@
         <v>45356</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>60</v>
@@ -5811,7 +5811,7 @@
         <v>60</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="39"/>
@@ -5840,13 +5840,13 @@
         <v>45356</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>60</v>
@@ -5865,7 +5865,7 @@
         <v>60</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="39"/>
@@ -5934,13 +5934,13 @@
         <v>45356</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H36" s="47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>60</v>

--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA/24/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.DELTADOMAIN\Desktop\FSE_2.0\DATI_SPECIALISTICA_E_RADIOLOGIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090DC5D4-89A0-42B3-8F4B-00C7B974389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9D03D7-4A1D-482D-95A3-F4455307C963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="330">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1062,9 +1062,6 @@
     <t>Validazione referto Fallita. Consultare i log per il dettaglio dell'errore.</t>
   </si>
   <si>
-    <t xml:space="preserve">Una console di errori è messa a dispozione di specifici utenti. Sarà loro cura intervenite ed eventualmete correggere le anomalie. Se necessario può sottoporre nuovamente a firma i referti che lo richiedono. Tutti i referti in stato di errore vengono rittoposti al sistema di validazione anche se di date passate (fino a un massimo di 30 giorni) tramite una procedura bach di recupero  </t>
-  </si>
-  <si>
     <t>il campo confidenzialità del documento è gestito con un valore di default N , qualora omesso</t>
   </si>
   <si>
@@ -1125,15 +1122,9 @@
     <t>Il campo è reso obligatorio nella procedura di inserimento del paziente e non accetta valori diversi da quelli previsti</t>
   </si>
   <si>
-    <t xml:space="preserve">L'operatore deve correggere la codifica e rigenerare il REFERTO con in nuovo CDA2. </t>
-  </si>
-  <si>
     <t>Errore di configurazione di Sistema. Contatta l'Amministrazione per la correzione della configurazione</t>
   </si>
   <si>
-    <t>Il sistema non è configurato correttamente. I parametri base per la creazione del JWT vanno corretti</t>
-  </si>
-  <si>
     <t>5c2c481b0b3837be</t>
   </si>
   <si>
@@ -1146,9 +1137,6 @@
     <t>2024-03-05T12:52:40Z</t>
   </si>
   <si>
-    <t>Dopo l'errore di timeout si richiede all'utente di riprovare in un momento successivo.  un elenco di documenti non validati è diponibile per le prove successive.</t>
-  </si>
-  <si>
     <t>9c721cc01f0bfe92</t>
   </si>
   <si>
@@ -1312,6 +1300,21 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.70.4.4.27756b8b0640bf76869e1bd523d54063c800f4e56edad8a12c5473a87bceb04f.d654ca0f47^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L'operatore deve correggere la codifica e rigenerare il REFERTO con in nuovo CDA2. Corretta l'anomalia di configurazione il referto può essere reinoltrato al sistema di validazione direttamente dal medico refertante, in alterativa lo stesso errore sarà visibile in una console di errori messa a disposizione di specifici utenti che potranno intervenire per le opportune correzioni. Tutti i referti in stato di errore e che risultano modifcati dopo la data dell'evento di errore e non ancora validati vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica.</t>
+  </si>
+  <si>
+    <t>Dopo il messaggio di errore di timeout si richiede all'utente di riprovare in un momento successivo.  un elenco di documenti non validati è disponibile per le prove successive. Tutti i documenti che in giornata subiscono un errore di timeout e che non vengono sottoposti a validazione in real time da parte dell'utente, vengono rittoposti alla validazione in automatico. Dopo 5 tentativi falliti di validazione causa timeout consecutivi (1 tentativo automatico l'ora), i documenti finiscono una console di errori che è messa a dispozione di specifici utenti. Sarà loro cura intervenire. Se necessario può sottoporre nuovamente a firma i referti che lo richiedono. Tutti i referti in stato di errore e che risultano modificati dopo la data dell'evento di errore e non ancora validati vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica. Questi documenti vengono evidenziati in modo diverso in quanto l'errore non è della validazione del documento ma sul fatto che il sistema remoto di validazione e down. Con il ritorno del sistema on-line tutti i documenti in errore di timeout vengono , da questa console, inviati direttamente dall'utente collegato.</t>
+  </si>
+  <si>
+    <t>Il sistema non è configurato correttamente. I parametri base per la creazione del JWT vanno corretti. Corretta l'anomalia di configurazione il referto può essere reinoltrato al sistema di validazione direttamente dal medico refertante, in alterativa lo stesso errore sarà visibile in una console di errori messa a disposizione di specifici utenti che potranno intervenire per le opportune correzioni. Tutti i referti in stato di errore e che risultamo modifcati dopo la data dell'evento di errore e non ancora validati vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica.</t>
+  </si>
+  <si>
+    <t>Il sistema non è configurato correttamente. I parametri base per la creazione del JWT vanno corretti. Corretta l'anomalia di configurazione il referto può essere reinoltrato al sistema di validazione direttamente dal medico refertante, in alterativa lo stesso errore sarà visibile in una console di errori messa a disposizione di specifici utenti che potranno intervenire per le opportune correzioni. Tutti i referti in stato di errore e che risultamo modificati dopo la data dell'evento di errore e non ancora validati vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica.</t>
+  </si>
+  <si>
+    <t>Il sistema non è configurato correttamente. I parametri base per la creazione del JWT vanno corretti. Corretta l'anomalia di configurazione il referto può essere reinoltrato al sistema di validazione direttamente dal medico refertante, in alterativa lo stesso errore sarà visibile in una console di errori messa a disposizione di specifici utenti che potranno intervenire per le opportune correzioni. Tutti i referti in stato di errore e che risultano modificati dopo la data dell'evento di errore vengono rittoposti al sistema di validazione anche se di date passate tramite una procedura bach di recupero o in real time dall'utente che ha apportato la modifica.</t>
   </si>
 </sst>
 </file>
@@ -4358,11 +4361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T653"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4382,7 +4385,7 @@
     <col min="13" max="13" width="37.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.42578125" style="41" customWidth="1"/>
     <col min="17" max="17" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32.85546875" style="41" bestFit="1" customWidth="1"/>
@@ -4622,7 +4625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1">
+    <row r="10" spans="1:20" ht="210.75" thickBot="1">
       <c r="A10" s="61">
         <v>32</v>
       </c>
@@ -4642,10 +4645,10 @@
         <v>45356</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>184</v>
@@ -4661,13 +4664,13 @@
         <v>60</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O10" s="22" t="s">
         <v>160</v>
       </c>
       <c r="P10" s="58" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="29"/>
@@ -4676,7 +4679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" thickBot="1">
+    <row r="11" spans="1:20" ht="210.75" thickBot="1">
       <c r="A11" s="61">
         <v>40</v>
       </c>
@@ -4696,10 +4699,10 @@
         <v>45356</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>184</v>
@@ -4715,13 +4718,13 @@
         <v>60</v>
       </c>
       <c r="N11" s="58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>160</v>
       </c>
       <c r="P11" s="58" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="29"/>
@@ -4730,7 +4733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="90.75" thickBot="1">
+    <row r="12" spans="1:20" ht="390.75" thickBot="1">
       <c r="A12" s="61">
         <v>48</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="Q12" s="28"/>
       <c r="R12" s="29" t="s">
@@ -4806,13 +4809,13 @@
         <v>45356</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>60</v>
@@ -4852,13 +4855,13 @@
         <v>45356</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>60</v>
@@ -4898,13 +4901,13 @@
         <v>45358</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>60</v>
@@ -4944,13 +4947,13 @@
         <v>45356</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>60</v>
@@ -4990,13 +4993,13 @@
         <v>45356</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J17" s="28" t="s">
         <v>60</v>
@@ -5015,7 +5018,7 @@
         <v>60</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="39"/>
@@ -5124,13 +5127,13 @@
         <v>45356</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J20" s="28" t="s">
         <v>60</v>
@@ -5149,7 +5152,7 @@
         <v>60</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="39"/>
@@ -5258,13 +5261,13 @@
         <v>45356</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>60</v>
@@ -5283,7 +5286,7 @@
         <v>60</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29"/>
@@ -5314,13 +5317,13 @@
         <v>45356</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>60</v>
@@ -5339,7 +5342,7 @@
         <v>60</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="28"/>
       <c r="R24" s="29"/>
@@ -5368,13 +5371,13 @@
         <v>45356</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>60</v>
@@ -5393,7 +5396,7 @@
         <v>60</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="28"/>
       <c r="R25" s="29"/>
@@ -5422,13 +5425,13 @@
         <v>45356</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>60</v>
@@ -5447,7 +5450,7 @@
         <v>60</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="29"/>
@@ -5476,13 +5479,13 @@
         <v>45356</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J27" s="28" t="s">
         <v>60</v>
@@ -5501,7 +5504,7 @@
         <v>60</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="39"/>
@@ -5570,13 +5573,13 @@
         <v>45356</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>60</v>
@@ -5595,7 +5598,7 @@
         <v>60</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="39"/>
@@ -5624,13 +5627,13 @@
         <v>45356</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>60</v>
@@ -5649,7 +5652,7 @@
         <v>60</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="39"/>
@@ -5678,13 +5681,13 @@
         <v>45356</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>60</v>
@@ -5703,7 +5706,7 @@
         <v>60</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="39"/>
@@ -5732,13 +5735,13 @@
         <v>45356</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>60</v>
@@ -5757,7 +5760,7 @@
         <v>60</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="39"/>
@@ -5786,13 +5789,13 @@
         <v>45356</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J33" s="22" t="s">
         <v>60</v>
@@ -5811,7 +5814,7 @@
         <v>60</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="39"/>
@@ -5840,13 +5843,13 @@
         <v>45356</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>60</v>
@@ -5865,7 +5868,7 @@
         <v>60</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="39"/>
@@ -5934,13 +5937,13 @@
         <v>45356</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H36" s="47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>60</v>
@@ -5978,13 +5981,13 @@
         <v>45356</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H37" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="52" t="s">
         <v>250</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>251</v>
       </c>
       <c r="J37" s="53" t="s">
         <v>60</v>
@@ -6155,13 +6158,13 @@
         <v>60</v>
       </c>
       <c r="N41" s="58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O41" s="22" t="s">
         <v>160</v>
       </c>
       <c r="P41" s="58" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="Q41" s="53"/>
       <c r="R41" s="54"/>
@@ -6170,7 +6173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="165.75" thickBot="1">
+    <row r="42" spans="1:20" ht="210.75" thickBot="1">
       <c r="A42" s="59">
         <v>39</v>
       </c>
@@ -6209,13 +6212,13 @@
         <v>60</v>
       </c>
       <c r="N42" s="58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O42" s="22" t="s">
         <v>160</v>
       </c>
       <c r="P42" s="58" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="Q42" s="53"/>
       <c r="R42" s="54"/>
@@ -6224,7 +6227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="261.75" customHeight="1">
+    <row r="43" spans="1:20" ht="390">
       <c r="A43" s="59">
         <v>47</v>
       </c>
@@ -6246,12 +6249,20 @@
       <c r="I43" s="50"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="58" t="s">
-        <v>245</v>
+      <c r="L43" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>326</v>
       </c>
       <c r="Q43" s="53"/>
       <c r="R43" s="54" t="s">
@@ -6286,7 +6297,7 @@
         <v>160</v>
       </c>
       <c r="K44" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L44" s="53"/>
       <c r="M44" s="53"/>
@@ -6324,7 +6335,7 @@
         <v>160</v>
       </c>
       <c r="K45" s="56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
@@ -6362,7 +6373,7 @@
         <v>160</v>
       </c>
       <c r="K46" s="56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
@@ -6400,7 +6411,7 @@
         <v>160</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
@@ -6438,7 +6449,7 @@
         <v>160</v>
       </c>
       <c r="K48" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
@@ -6476,7 +6487,7 @@
         <v>160</v>
       </c>
       <c r="K49" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L49" s="56"/>
       <c r="M49" s="56"/>
@@ -6490,7 +6501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="120.75" thickBot="1">
+    <row r="50" spans="1:20" ht="210.75" thickBot="1">
       <c r="A50" s="59">
         <v>81</v>
       </c>
@@ -6510,13 +6521,13 @@
         <v>45356</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H50" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I50" s="52" t="s">
         <v>253</v>
-      </c>
-      <c r="I50" s="52" t="s">
-        <v>254</v>
       </c>
       <c r="J50" s="53" t="s">
         <v>60</v>
@@ -6535,7 +6546,7 @@
         <v>60</v>
       </c>
       <c r="P50" s="56" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="Q50" s="53"/>
       <c r="R50" s="54"/>
@@ -6544,7 +6555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="120">
+    <row r="51" spans="1:20" ht="210">
       <c r="A51" s="59">
         <v>82</v>
       </c>
@@ -6564,13 +6575,13 @@
         <v>45356</v>
       </c>
       <c r="G51" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H51" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="I51" s="52" t="s">
         <v>256</v>
-      </c>
-      <c r="I51" s="52" t="s">
-        <v>257</v>
       </c>
       <c r="J51" s="53" t="s">
         <v>60</v>
@@ -6589,7 +6600,7 @@
         <v>60</v>
       </c>
       <c r="P51" s="56" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="Q51" s="53"/>
       <c r="R51" s="54"/>
@@ -6940,7 +6951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="120">
+    <row r="61" spans="1:20" ht="210">
       <c r="A61" s="59">
         <v>92</v>
       </c>
@@ -6960,13 +6971,13 @@
         <v>45356</v>
       </c>
       <c r="G61" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="H61" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="H61" s="52" t="s">
+      <c r="I61" s="52" t="s">
         <v>260</v>
-      </c>
-      <c r="I61" s="52" t="s">
-        <v>261</v>
       </c>
       <c r="J61" s="53" t="s">
         <v>60</v>
@@ -6985,7 +6996,7 @@
         <v>60</v>
       </c>
       <c r="P61" s="56" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="Q61" s="53"/>
       <c r="R61" s="54"/>
@@ -7052,13 +7063,13 @@
         <v>45356</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H63" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" s="52" t="s">
         <v>262</v>
-      </c>
-      <c r="I63" s="52" t="s">
-        <v>263</v>
       </c>
       <c r="J63" s="53" t="s">
         <v>60</v>
@@ -16217,7 +16228,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10 L10:M10 L12:M35 J12:J35 O12:O35</xm:sqref>
+          <xm:sqref>J10 L10:M10 L12:M35 J12:J35 O12:O35 L43:M43 O43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
